--- a/World_Indices_List.xlsx
+++ b/World_Indices_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="Currencies" sheetId="3" r:id="rId3"/>
     <sheet name="Commodities" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
-    <sheet name="iso" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet0" sheetId="6" r:id="rId6"/>
+    <sheet name="iso" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="249">
   <si>
     <t>Sr No</t>
   </si>
@@ -3099,9 +3100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3892,4 +3891,687 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>37.090240000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-95.712890999999999</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="3">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>56.130366000000002</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-106.346771</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-14.235004</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-51.925280000000001</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F4" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3">
+        <v>23.634501</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-102.552784</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="3">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <v>51.165691000000002</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10.451525999999999</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6" s="3">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3">
+        <v>55.378050999999999</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-3.4359730000000002</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="F7" s="3">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3">
+        <v>46.227637999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2.213749</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3">
+        <v>52.132632999999998</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5.2912660000000002</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="3">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3">
+        <v>40.463667000000001</v>
+      </c>
+      <c r="D10" s="3">
+        <v>-3.7492200000000002</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="3">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3">
+        <v>41.871940000000002</v>
+      </c>
+      <c r="D11" s="3">
+        <v>12.56738</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F11" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3">
+        <v>46.818187999999999</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8.2275120000000008</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3">
+        <v>56.263919999999999</v>
+      </c>
+      <c r="D13" s="3">
+        <v>9.5017849999999999</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F13" s="3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3">
+        <v>61.524009999999997</v>
+      </c>
+      <c r="D14" s="3">
+        <v>105.31875599999999</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="3">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="3">
+        <v>23.885942</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45.079161999999997</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="F15" s="3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3">
+        <v>36.204824000000002</v>
+      </c>
+      <c r="D16" s="3">
+        <v>138.25292400000001</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F16" s="3">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-25.274398000000001</v>
+      </c>
+      <c r="D17" s="3">
+        <v>133.775136</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F17" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-40.900556999999999</v>
+      </c>
+      <c r="D18" s="3">
+        <v>174.88597100000001</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="3">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="3">
+        <v>35.861660000000001</v>
+      </c>
+      <c r="D19" s="3">
+        <v>104.195397</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F19" s="3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="3">
+        <v>22.396428</v>
+      </c>
+      <c r="D20" s="3">
+        <v>114.109497</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F20" s="3">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="3">
+        <v>23.69781</v>
+      </c>
+      <c r="D21" s="3">
+        <v>120.960515</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F21" s="3">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="3">
+        <v>15.870032</v>
+      </c>
+      <c r="D22" s="3">
+        <v>100.992541</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F22" s="3">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="3">
+        <v>35.907756999999997</v>
+      </c>
+      <c r="D23" s="3">
+        <v>127.76692199999999</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F23" s="3">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-0.78927499999999995</v>
+      </c>
+      <c r="D24" s="3">
+        <v>113.92132700000001</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F24" s="3">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="3">
+        <v>20.593684</v>
+      </c>
+      <c r="D25" s="3">
+        <v>78.962879999999998</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F25" s="3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="3">
+        <v>12.879721</v>
+      </c>
+      <c r="D26" s="3">
+        <v>121.774017</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="3">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" s="3">
+        <v>14.058324000000001</v>
+      </c>
+      <c r="D27" s="3">
+        <v>108.277199</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F27" s="3">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-35.675147000000003</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-71.542968999999999</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" s="3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="3">
+        <v>4.5708679999999999</v>
+      </c>
+      <c r="D29" s="3">
+        <v>-74.297332999999995</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F29" s="3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="3">
+        <v>4.2104840000000001</v>
+      </c>
+      <c r="D30" s="3">
+        <v>101.97576599999999</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F30" s="3">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.3520829999999999</v>
+      </c>
+      <c r="D31" s="3">
+        <v>103.819836</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="3">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-30.559481999999999</v>
+      </c>
+      <c r="D32" s="3">
+        <v>22.937505999999999</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F32" s="3">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-9.1899669999999993</v>
+      </c>
+      <c r="D33" s="3">
+        <v>-75.015152</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F33" s="3">
+        <v>604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>